--- a/docs/tmp_SeedTable.xlsx
+++ b/docs/tmp_SeedTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bab635\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datosEloy\climatrade\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B6492A-77A4-4C54-85E1-9237C54DC237}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E264DD9E-D2F8-49D8-931E-DC2C365167FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="128">
   <si>
     <t>EURCAD</t>
   </si>
@@ -230,13 +230,190 @@
     <t>FeatureCode</t>
   </si>
   <si>
-    <t>Geo_std</t>
-  </si>
-  <si>
     <t>Concepts</t>
   </si>
   <si>
     <t>isGoal</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Major Five Asia</t>
+  </si>
+  <si>
+    <t>Euro area (19 countries)</t>
+  </si>
+  <si>
+    <t>Four Big European</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>NAFTA</t>
+  </si>
+  <si>
+    <t>OECD - Total</t>
+  </si>
+  <si>
+    <t>OECD - Europe</t>
+  </si>
+  <si>
+    <t>OECD + Major Six NME</t>
+  </si>
+  <si>
+    <t>OECD total excluding the euro area</t>
+  </si>
+  <si>
+    <t>RelatedFeatures</t>
+  </si>
+  <si>
+    <t>airTraffic.airportDepartures</t>
+  </si>
+  <si>
+    <t>airTraffic.worldFlights</t>
+  </si>
+  <si>
+    <t>FIFA.Rank</t>
+  </si>
+  <si>
+    <t>moonSun.weekday</t>
+  </si>
+  <si>
+    <t>moonSun.moonPhase</t>
+  </si>
+  <si>
+    <t>moonSun.sunrise</t>
+  </si>
+  <si>
+    <t>moonSun.sunset</t>
+  </si>
+  <si>
+    <t>moonSun.nightHours</t>
+  </si>
+  <si>
+    <t>music.danceability</t>
+  </si>
+  <si>
+    <t>music.energy</t>
+  </si>
+  <si>
+    <t>music.tempo</t>
+  </si>
+  <si>
+    <t>music.key</t>
+  </si>
+  <si>
+    <t>music.loudness</t>
+  </si>
+  <si>
+    <t>music.speechiness</t>
+  </si>
+  <si>
+    <t>music.acousticness</t>
+  </si>
+  <si>
+    <t>music.instrumentalness</t>
+  </si>
+  <si>
+    <t>music.liveness</t>
+  </si>
+  <si>
+    <t>music.valence</t>
+  </si>
+  <si>
+    <t>OECD.BCI</t>
+  </si>
+  <si>
+    <t>OECD.CCI</t>
+  </si>
+  <si>
+    <t>OECD.CLI</t>
+  </si>
+  <si>
+    <t>searchesGoogle.cinema</t>
+  </si>
+  <si>
+    <t>searchesGoogle.football</t>
+  </si>
+  <si>
+    <t>searchesGoogle.global_politics</t>
+  </si>
+  <si>
+    <t>searchesGoogle.spanish_banks</t>
+  </si>
+  <si>
+    <t>twitterSentiment.football</t>
+  </si>
+  <si>
+    <t>twitterSentiment.global politics</t>
+  </si>
+  <si>
+    <t>twitterSentiment.miscelaneous</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>General Std_Geo</t>
+  </si>
+  <si>
+    <t>Specific Std_Geo</t>
   </si>
 </sst>
 </file>
@@ -261,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +448,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,10 +470,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,400 +791,1618 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD22AB8-2BF2-4654-A059-AD76C79E4924}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:L219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="24.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.08984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="1"/>
+    <col min="12" max="12" width="8.7265625" style="4"/>
+    <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L7" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L9" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L10" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L11" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L12" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L13" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L14" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L15" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L16" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L17" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="L18" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="L19" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="L20" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="L21" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="L22" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="L23" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="L24" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="L25" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="L26" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="L27" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="L28" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="L29" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B38" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B40" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B41" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B42" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B44" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B45" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B46" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B47" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B48" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B61" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B63" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B64" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B80" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B89" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B96" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B101" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B102" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B104" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B105" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B106" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B107" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B108" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B109" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B110" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B111" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B112" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B113" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B115" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B116" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B117" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B118" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B119" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B120" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B121" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B122" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B123" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B124" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B125" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B126" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B127" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B128" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B129" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B130" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B131" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B132" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B133" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B134" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B135" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B136" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B137" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B138" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B139" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B140" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B141" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B142" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B143" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B144" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B145" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B146" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B147" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B148" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B149" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B150" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B151" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B152" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B153" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B154" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B155" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B156" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B157" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B158" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B159" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B160" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B161" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B162" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B163" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B164" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B165" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B166" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B167" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B168" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B169" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B170" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B171" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B172" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B173" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B174" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B175" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B176" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B177" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B178" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B179" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B180" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B181" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B182" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B183" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B184" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B185" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B186" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B187" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B188" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B189" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B190" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B191" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B192" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B193" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B194" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B195" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B196" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B197" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B198" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B199" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B200" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B201" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B202" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B203" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B204" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B205" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B206" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B207" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B208" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B209" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B210" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B211" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B212" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B213" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B214" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B215" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B216" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B217" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B218" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B219" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/docs/tmp_SeedTable.xlsx
+++ b/docs/tmp_SeedTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\datosEloy\climatrade\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E2175D-D33B-48B3-B007-3110EDC562FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E57C73-3669-46ED-B739-5FD5E01B7479}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{A7D59B3C-C93D-4BD3-8C85-3B3391A4628F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="90">
   <si>
     <t>EURCAD</t>
   </si>
@@ -266,66 +266,6 @@
     <t>Switzerland</t>
   </si>
   <si>
-    <t>airTraffic.airportDepartures</t>
-  </si>
-  <si>
-    <t>moonSun.sunrise</t>
-  </si>
-  <si>
-    <t>moonSun.sunset</t>
-  </si>
-  <si>
-    <t>moonSun.nightHours</t>
-  </si>
-  <si>
-    <t>music.danceability</t>
-  </si>
-  <si>
-    <t>music.energy</t>
-  </si>
-  <si>
-    <t>music.key</t>
-  </si>
-  <si>
-    <t>music.loudness</t>
-  </si>
-  <si>
-    <t>music.speechiness</t>
-  </si>
-  <si>
-    <t>music.acousticness</t>
-  </si>
-  <si>
-    <t>music.instrumentalness</t>
-  </si>
-  <si>
-    <t>music.liveness</t>
-  </si>
-  <si>
-    <t>music.valence</t>
-  </si>
-  <si>
-    <t>searchesGoogle.cinema</t>
-  </si>
-  <si>
-    <t>searchesGoogle.football</t>
-  </si>
-  <si>
-    <t>searchesGoogle.global_politics</t>
-  </si>
-  <si>
-    <t>searchesGoogle.spanish_banks</t>
-  </si>
-  <si>
-    <t>twitterSentiment.football</t>
-  </si>
-  <si>
-    <t>twitterSentiment.global politics</t>
-  </si>
-  <si>
-    <t>twitterSentiment.miscelaneous</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -335,51 +275,41 @@
     <t>Specific Std_Geo</t>
   </si>
   <si>
-    <t>Geosocial features</t>
-  </si>
-  <si>
-    <t>Not yet used:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">airTraffic.worldFlights
+    <t>airTraffic.worldFlights
 moonSun.weekday
 moonSun.moonPhase
-FIFA.Rank@...
-music.tempo@...
-      ------
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OECD:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-OECD.BCI@...
-OECD.CCI@...
-OECD.CLI@...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Global
+FIFA.Rank@
+music.tempo@
+OECD.BCI@
+OECD.CCI@
+OECD.CLI@</t>
+  </si>
+  <si>
+    <t>PlanetMoodFeatures</t>
+  </si>
+  <si>
+    <t>SpecificSearchConcepts</t>
+  </si>
+  <si>
+    <t>GenericSearchConcepts</t>
+  </si>
+  <si>
+    <t>SpecificSentimentConcepts</t>
+  </si>
+  <si>
+    <t>GenericSentimentConcepts</t>
+  </si>
+  <si>
+    <t>USAgov(from:potus) 
+trump()
+china()</t>
+  </si>
+  <si>
+    <t>brexit
+gold price</t>
+  </si>
+  <si>
+    <t>Global
 USA
 United Kingdom
 England
@@ -388,48 +318,21 @@
 China
 Germany
 Spain
-      ------
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OECD geo-groupings:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
 OECD - Total
 G7
 OECD + Major Six NME
 Euro area (19 countries)
 Four Big European
 OECD - Europe
-OECD total excluding the euro area
 NAFTA
 Major Five Asia</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,31 +342,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -499,9 +377,22 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -510,14 +401,104 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -529,10 +510,23 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -540,8 +534,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
@@ -555,56 +562,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -615,8 +575,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thick">
+        <color rgb="FF0070C0"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
@@ -624,8 +584,49 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,41 +634,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,23 +994,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I219"/>
+  <dimension ref="A1:J219"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.26953125" style="1" customWidth="1"/>
     <col min="2" max="3" width="15.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="6" width="32.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="10" width="24.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
         <v>64</v>
       </c>
@@ -1010,1503 +1017,1590 @@
         <v>65</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="16"/>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="I3" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="16"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="I4" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="16"/>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="I5" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="16"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="I6" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="16"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="I7" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="16"/>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="I8" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="16"/>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="I9" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="16"/>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="I10" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="I11" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="I12" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="16"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="I13" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="16"/>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="I14" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="16"/>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="I15" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="16"/>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="I16" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="16"/>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="I17" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="16"/>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="I18" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="16"/>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="I19" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="16"/>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="I20" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="16"/>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="I21" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="16"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="16"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="16"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="16"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="16"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="16"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="16"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="16"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="16"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="16"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="16"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="16"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="J2:J34"/>
+    <mergeCell ref="D2:D34"/>
     <mergeCell ref="F2:F34"/>
-    <mergeCell ref="D2:D34"/>
+    <mergeCell ref="H2:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="22" orientation="portrait" r:id="rId1"/>
